--- a/Documents/MPIHypernetTest.xlsx
+++ b/Documents/MPIHypernetTest.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="list1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="4" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>R</t>
   </si>
@@ -40,6 +41,42 @@
     <t>Time</t>
   </si>
   <si>
+    <t>TreeInGrid(9,12,8)</t>
+  </si>
+  <si>
+    <t>TreeInGrid(16,24,15)</t>
+  </si>
+  <si>
+    <t>TreeInGrid(25,40,24)</t>
+  </si>
+  <si>
+    <t>WheelInGrid(9,12,16)</t>
+  </si>
+  <si>
+    <t>CycleInGrid(9,12,9)</t>
+  </si>
+  <si>
+    <t>RandomHypernet(9, 12, 16)</t>
+  </si>
+  <si>
+    <t>RandomHypernet(9, 12, 12)</t>
+  </si>
+  <si>
+    <t>RandomHypernet(6, 7, 8)</t>
+  </si>
+  <si>
+    <t>RandomHypernet1(78, 109, 38)</t>
+  </si>
+  <si>
+    <t>117.888</t>
+  </si>
+  <si>
+    <t>RandomHypernet2(78, 109, 38)</t>
+  </si>
+  <si>
+    <t>3947.58</t>
+  </si>
+  <si>
     <t>FirstRoot</t>
   </si>
   <si>
@@ -55,67 +92,100 @@
     <t>Value p=0,9</t>
   </si>
   <si>
-    <t>Результаты тестирования TestHypernet(78, 111, 0, 5) для вершин 1, 18, 60, 77, 46 с двумя вкладываемыми деревьями по 20 вершин</t>
-  </si>
-  <si>
-    <t>0.00445282407662644</t>
-  </si>
-  <si>
-    <t>215.996989980573</t>
-  </si>
-  <si>
-    <t>0.00655922364041224</t>
-  </si>
-  <si>
-    <t>851.444501885038</t>
-  </si>
-  <si>
-    <t>0.00464329470141682</t>
-  </si>
-  <si>
-    <t>243.043992742081</t>
-  </si>
-  <si>
-    <t>0.00604029947608063</t>
-  </si>
-  <si>
-    <t>493.246381663019</t>
-  </si>
-  <si>
-    <t>0.00449784765202598</t>
-  </si>
-  <si>
-    <t>656.656628077035</t>
-  </si>
-  <si>
-    <t>0.0054577914664981</t>
-  </si>
-  <si>
-    <t>3901.87996602926</t>
-  </si>
-  <si>
-    <t>0.0072705828587587</t>
-  </si>
-  <si>
-    <t>113.768532592803</t>
-  </si>
-  <si>
-    <t>0.0106689591741556</t>
-  </si>
-  <si>
-    <t>191.913705652521</t>
-  </si>
-  <si>
-    <t>0.00482080081310556</t>
-  </si>
-  <si>
-    <t>589.084069623379</t>
-  </si>
-  <si>
-    <t>0.00499975390487867</t>
-  </si>
-  <si>
-    <t>894.275143000064</t>
+    <t>Результаты тестирования TestHypernet(56, 78, 0, 5) для вершин 1, 14, 28, 42, 56 с двумя вкладываемыми деревьями по 28 вершин</t>
+  </si>
+  <si>
+    <t>Value p=0,99</t>
+  </si>
+  <si>
+    <t>0.0407232977243137</t>
+  </si>
+  <si>
+    <t>0.415783643589704</t>
+  </si>
+  <si>
+    <t>1346.81400946213</t>
+  </si>
+  <si>
+    <t>0.0310345564841134</t>
+  </si>
+  <si>
+    <t>0.433846479057283</t>
+  </si>
+  <si>
+    <t>2798.29239239905</t>
+  </si>
+  <si>
+    <t>0.0479243250680992</t>
+  </si>
+  <si>
+    <t>0.433422957553646</t>
+  </si>
+  <si>
+    <t>1454.73693695711</t>
+  </si>
+  <si>
+    <t>0.023168673068677</t>
+  </si>
+  <si>
+    <t>0.381309362381559</t>
+  </si>
+  <si>
+    <t>5966.40902398201</t>
+  </si>
+  <si>
+    <t>0.0387163247857552</t>
+  </si>
+  <si>
+    <t>0.439999276484753</t>
+  </si>
+  <si>
+    <t>2697.09397067234</t>
+  </si>
+  <si>
+    <t>0.0210452860875262</t>
+  </si>
+  <si>
+    <t>0.434256901542712</t>
+  </si>
+  <si>
+    <t>1175.78698870947</t>
+  </si>
+  <si>
+    <t>0.057958793143114</t>
+  </si>
+  <si>
+    <t>0.386236405442104</t>
+  </si>
+  <si>
+    <t>3851.734914214</t>
+  </si>
+  <si>
+    <t>0.0371822396311275</t>
+  </si>
+  <si>
+    <t>0.41812877751548</t>
+  </si>
+  <si>
+    <t>4550.2585846805</t>
+  </si>
+  <si>
+    <t>0.0423185781214436</t>
+  </si>
+  <si>
+    <t>0.376263222020351</t>
+  </si>
+  <si>
+    <t>3475.13351703924</t>
+  </si>
+  <si>
+    <t>0.0216806601896791</t>
+  </si>
+  <si>
+    <t>0.369356843524354</t>
+  </si>
+  <si>
+    <t>1907.76241526508</t>
   </si>
 </sst>
 </file>
@@ -131,10 +201,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-      <charset val="204"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -169,30 +239,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -473,15 +531,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
@@ -489,21 +547,20 @@
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -517,103 +574,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>134</v>
+      </c>
+      <c r="C11">
+        <v>70974754</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>2779</v>
+      </c>
+      <c r="C12">
+        <v>228611788</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -644,6 +682,10 @@
       <c r="A29" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -651,256 +693,385 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5">
-        <v>6</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="B3" s="6">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>42</v>
+      </c>
+      <c r="C5" s="6">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>56</v>
+      </c>
+      <c r="C6" s="6">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6">
+        <v>13</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6">
+        <v>42</v>
+      </c>
+      <c r="C8" s="6">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6">
+        <v>56</v>
+      </c>
+      <c r="C9" s="6">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>60</v>
-      </c>
-      <c r="C4" s="5">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="G9" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>28</v>
+      </c>
+      <c r="B10" s="6">
+        <v>42</v>
+      </c>
+      <c r="C10" s="6">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6">
+        <v>15</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>28</v>
+      </c>
+      <c r="B11" s="6">
+        <v>56</v>
+      </c>
+      <c r="C11" s="6">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>77</v>
-      </c>
-      <c r="C5" s="5">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6">
         <v>56</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="C12" s="6">
         <v>16</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>46</v>
-      </c>
-      <c r="C6" s="5">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5">
-        <v>45</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>18</v>
-      </c>
-      <c r="B7" s="5">
-        <v>60</v>
-      </c>
-      <c r="C7" s="5">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5">
-        <v>45</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5">
-        <v>77</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="D12" s="6">
         <v>16</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5">
-        <v>46</v>
-      </c>
-      <c r="C9" s="5">
-        <v>19</v>
-      </c>
-      <c r="D9" s="5">
-        <v>57</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>60</v>
-      </c>
-      <c r="B10" s="5">
-        <v>77</v>
-      </c>
-      <c r="C10" s="5">
-        <v>24</v>
-      </c>
-      <c r="D10" s="5">
-        <v>62</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>60</v>
-      </c>
-      <c r="B11" s="5">
-        <v>46</v>
-      </c>
-      <c r="C11" s="5">
-        <v>32</v>
-      </c>
-      <c r="D11" s="5">
-        <v>70</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>77</v>
-      </c>
-      <c r="B12" s="5">
-        <v>46</v>
-      </c>
-      <c r="C12" s="5">
-        <v>38</v>
-      </c>
-      <c r="D12" s="5">
-        <v>76</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
